--- a/AAAGameData/Languages/Korean.xlsx
+++ b/AAAGameData/Languages/Korean.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>BRAKE</t>
   </si>
@@ -75,18 +75,6 @@
     <t>가져오기</t>
   </si>
   <si>
-    <t>HelloWorld!</t>
-  </si>
-  <si>
-    <t>안녕 세상!</t>
-  </si>
-  <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>홈 페이지</t>
-  </si>
-  <si>
     <t>Level.DisplayName1</t>
   </si>
   <si>
@@ -123,18 +111,54 @@
     <t>시작 클릭</t>
   </si>
   <si>
-    <t>RATE US</t>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>실현되지 않음</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>끄기</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>켜기</t>
+  </si>
+  <si>
+    <t>RatingDialog.CancelTxt</t>
+  </si>
+  <si>
+    <t>취소</t>
+  </si>
+  <si>
+    <t>RatingDialog.Description</t>
+  </si>
+  <si>
+    <t>이 게임 좋아해요?\n 별 다섯 개 호평해 주세요!</t>
+  </si>
+  <si>
+    <t>RatingDialog.HighRatingTips</t>
+  </si>
+  <si>
+    <t>당신의 긍정에 감사 드립니다!우리는 더욱 분발할 것이다!</t>
+  </si>
+  <si>
+    <t>RatingDialog.LowRatingTips</t>
+  </si>
+  <si>
+    <t>당신의 평가에 감사드립니다. 우리는 최선을 다해 최적화를 완비합니다!</t>
+  </si>
+  <si>
+    <t>RatingDialog.RateTxt</t>
   </si>
   <si>
     <t>별을 평가하다</t>
   </si>
   <si>
-    <t>RESTORE</t>
-  </si>
-  <si>
-    <t>복구</t>
-  </si>
-  <si>
     <t>RETRY</t>
   </si>
   <si>
@@ -147,12 +171,54 @@
     <t>부활</t>
   </si>
   <si>
-    <t>SETTINGS</t>
+    <t>Settings.Help</t>
+  </si>
+  <si>
+    <t>도움말 / 피드백</t>
+  </si>
+  <si>
+    <t>Settings.Language</t>
+  </si>
+  <si>
+    <t>언어</t>
+  </si>
+  <si>
+    <t>Settings.Music</t>
+  </si>
+  <si>
+    <t>배경음악</t>
+  </si>
+  <si>
+    <t>Settings.Privacy</t>
+  </si>
+  <si>
+    <t>개인 정보 보호 프로토콜</t>
+  </si>
+  <si>
+    <t>Settings.Rating</t>
+  </si>
+  <si>
+    <t>채점</t>
+  </si>
+  <si>
+    <t>Settings.SFX</t>
+  </si>
+  <si>
+    <t>음향 효과</t>
+  </si>
+  <si>
+    <t>Settings.Title</t>
   </si>
   <si>
     <t>설치</t>
   </si>
   <si>
+    <t>Settings.Vibrate</t>
+  </si>
+  <si>
+    <t>진동</t>
+  </si>
+  <si>
     <t>SHOP</t>
   </si>
   <si>
@@ -160,6 +226,12 @@
   </si>
   <si>
     <t>STEERING</t>
+  </si>
+  <si>
+    <t>TermsOfService</t>
+  </si>
+  <si>
+    <t>서비스 약관</t>
   </si>
   <si>
     <t>UNLOCK</t>
@@ -260,7 +332,55 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1471,6 +1591,450 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -1487,10 +2051,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1044">
+            <xdr:cNvPr hidden="1" name="A1" id="1056">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
+                  <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1573,10 +2137,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1045">
+            <xdr:cNvPr hidden="1" name="A2" id="1057">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1659,10 +2223,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1046">
+            <xdr:cNvPr hidden="1" name="A3" id="1058">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
+                  <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1745,10 +2309,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1047">
+            <xdr:cNvPr hidden="1" name="A4" id="1059">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1047"/>
+                  <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1831,10 +2395,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1048">
+            <xdr:cNvPr hidden="1" name="A5" id="1060">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -1917,10 +2481,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1049">
+            <xdr:cNvPr hidden="1" name="A6" id="1061">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1049"/>
+                  <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2003,10 +2567,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1050">
+            <xdr:cNvPr hidden="1" name="A7" id="1062">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1050"/>
+                  <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2089,10 +2653,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1051">
+            <xdr:cNvPr hidden="1" name="A8" id="1063">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
+                  <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2175,10 +2739,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1052">
+            <xdr:cNvPr hidden="1" name="A9" id="1064">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2261,10 +2825,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1053">
+            <xdr:cNvPr hidden="1" name="A10" id="1065">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
+                  <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2347,10 +2911,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1054">
+            <xdr:cNvPr hidden="1" name="A11" id="1066">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
+                  <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2433,10 +2997,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1055">
+            <xdr:cNvPr hidden="1" name="A12" id="1067">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
+                  <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2519,10 +3083,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1056">
+            <xdr:cNvPr hidden="1" name="A13" id="1068">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
+                  <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2605,10 +3169,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1057">
+            <xdr:cNvPr hidden="1" name="A14" id="1069">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
+                  <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2691,10 +3255,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1058">
+            <xdr:cNvPr hidden="1" name="A15" id="1070">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
+                  <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2777,10 +3341,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1059">
+            <xdr:cNvPr hidden="1" name="A16" id="1071">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
+                  <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2863,10 +3427,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1060">
+            <xdr:cNvPr hidden="1" name="A17" id="1072">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -2949,10 +3513,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1061">
+            <xdr:cNvPr hidden="1" name="A18" id="1073">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3035,10 +3599,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1062">
+            <xdr:cNvPr hidden="1" name="A19" id="1074">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -3104,20 +3668,1052 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A20" id="1075">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A21" id="1076">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A22" id="1077">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A23" id="1078">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A24" id="1079">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A25" id="1080">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A26" id="1081">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A27" id="1082">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A28" id="1083">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A29" id="1084">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A30" id="1085">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A31" id="1086">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25.4074859619141" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3279,16 +4875,124 @@
         <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1"/>
+      <c r="B22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +5004,7 @@
       <controls xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId284" name="A1">
+            <control shapeId="1056" r:id="rId391" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3322,7 +5026,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId285" name="A2">
+            <control shapeId="1057" r:id="rId392" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3344,7 +5048,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId286" name="A3">
+            <control shapeId="1058" r:id="rId393" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3366,7 +5070,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId287" name="A4">
+            <control shapeId="1059" r:id="rId394" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3388,7 +5092,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId288" name="A5">
+            <control shapeId="1060" r:id="rId395" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3410,7 +5114,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId289" name="A6">
+            <control shapeId="1061" r:id="rId396" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3432,7 +5136,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId290" name="A7">
+            <control shapeId="1062" r:id="rId397" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3454,7 +5158,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId291" name="A8">
+            <control shapeId="1063" r:id="rId398" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3476,7 +5180,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId292" name="A9">
+            <control shapeId="1064" r:id="rId399" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3498,7 +5202,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId293" name="A10">
+            <control shapeId="1065" r:id="rId400" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3520,7 +5224,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId294" name="A11">
+            <control shapeId="1066" r:id="rId401" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3542,7 +5246,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId295" name="A12">
+            <control shapeId="1067" r:id="rId402" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3564,7 +5268,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId296" name="A13">
+            <control shapeId="1068" r:id="rId403" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3586,7 +5290,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId297" name="A14">
+            <control shapeId="1069" r:id="rId404" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3608,7 +5312,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId298" name="A15">
+            <control shapeId="1070" r:id="rId405" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3630,7 +5334,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId299" name="A16">
+            <control shapeId="1071" r:id="rId406" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3652,7 +5356,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId300" name="A17">
+            <control shapeId="1072" r:id="rId407" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3674,7 +5378,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId301" name="A18">
+            <control shapeId="1073" r:id="rId408" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3696,7 +5400,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId302" name="A19">
+            <control shapeId="1074" r:id="rId409" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3709,6 +5413,270 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId410" name="A20">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId411" name="A21">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId412" name="A22">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId413" name="A23">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId414" name="A24">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId415" name="A25">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId416" name="A26">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId417" name="A27">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId418" name="A28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId419" name="A29">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId420" name="A30">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId421" name="A31">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/AAAGameData/Languages/Korean.xlsx
+++ b/AAAGameData/Languages/Korean.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>BRAKE</t>
   </si>
@@ -69,10 +69,13 @@
     <t>엔진</t>
   </si>
   <si>
-    <t>GET</t>
+    <t>Failed</t>
   </si>
   <si>
-    <t>가져오기</t>
+    <t/>
+  </si>
+  <si>
+    <t>GameOverUIForm.Back</t>
   </si>
   <si>
     <t>Level.DisplayName1</t>
@@ -159,18 +162,6 @@
     <t>별을 평가하다</t>
   </si>
   <si>
-    <t>RETRY</t>
-  </si>
-  <si>
-    <t>다시 시도</t>
-  </si>
-  <si>
-    <t>REVIVE</t>
-  </si>
-  <si>
-    <t>부활</t>
-  </si>
-  <si>
     <t>Settings.Help</t>
   </si>
   <si>
@@ -238,6 +229,9 @@
   </si>
   <si>
     <t>잠금 해제</t>
+  </si>
+  <si>
+    <t>Victory</t>
   </si>
 </sst>
 </file>
@@ -2035,6 +2029,130 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -4749,250 +4867,250 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5004,7 +5122,7 @@
       <controls xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId391" name="A1">
+            <control shapeId="1056" r:id="rId421" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5026,7 +5144,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId392" name="A2">
+            <control shapeId="1057" r:id="rId422" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5048,7 +5166,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId393" name="A3">
+            <control shapeId="1058" r:id="rId423" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5070,7 +5188,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId394" name="A4">
+            <control shapeId="1059" r:id="rId424" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5092,7 +5210,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId395" name="A5">
+            <control shapeId="1060" r:id="rId425" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5114,7 +5232,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId396" name="A6">
+            <control shapeId="1061" r:id="rId426" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5136,7 +5254,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId397" name="A7">
+            <control shapeId="1062" r:id="rId427" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5158,7 +5276,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId398" name="A8">
+            <control shapeId="1063" r:id="rId428" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5180,7 +5298,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId399" name="A9">
+            <control shapeId="1064" r:id="rId429" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5202,7 +5320,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId400" name="A10">
+            <control shapeId="1065" r:id="rId430" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5224,7 +5342,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId401" name="A11">
+            <control shapeId="1066" r:id="rId431" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5246,7 +5364,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId402" name="A12">
+            <control shapeId="1067" r:id="rId432" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5268,7 +5386,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId403" name="A13">
+            <control shapeId="1068" r:id="rId433" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5290,7 +5408,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId404" name="A14">
+            <control shapeId="1069" r:id="rId434" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5312,7 +5430,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId405" name="A15">
+            <control shapeId="1070" r:id="rId435" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5334,7 +5452,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId406" name="A16">
+            <control shapeId="1071" r:id="rId436" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5356,7 +5474,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId407" name="A17">
+            <control shapeId="1072" r:id="rId437" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5378,7 +5496,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId408" name="A18">
+            <control shapeId="1073" r:id="rId438" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5400,7 +5518,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId409" name="A19">
+            <control shapeId="1074" r:id="rId439" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5422,7 +5540,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId410" name="A20">
+            <control shapeId="1075" r:id="rId440" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5444,7 +5562,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId411" name="A21">
+            <control shapeId="1076" r:id="rId441" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5466,7 +5584,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId412" name="A22">
+            <control shapeId="1077" r:id="rId442" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5488,7 +5606,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId413" name="A23">
+            <control shapeId="1078" r:id="rId443" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5510,7 +5628,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId414" name="A24">
+            <control shapeId="1079" r:id="rId444" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5532,7 +5650,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId415" name="A25">
+            <control shapeId="1080" r:id="rId445" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5554,7 +5672,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId416" name="A26">
+            <control shapeId="1081" r:id="rId446" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5576,7 +5694,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId417" name="A27">
+            <control shapeId="1082" r:id="rId447" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5598,7 +5716,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId418" name="A28">
+            <control shapeId="1083" r:id="rId448" name="A28">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5620,7 +5738,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId419" name="A29">
+            <control shapeId="1084" r:id="rId449" name="A29">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5642,7 +5760,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId420" name="A30">
+            <control shapeId="1085" r:id="rId450" name="A30">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5664,7 +5782,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId421" name="A31">
+            <control shapeId="1086" r:id="rId451" name="A31">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
